--- a/public/admin_deposit.xlsx
+++ b/public/admin_deposit.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>아이디</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>2021-07-06 14:40:50</t>
-  </si>
-  <si>
-    <t>DELIVERY_PRICE_RECEIVE</t>
   </si>
 </sst>
 </file>
@@ -285,7 +282,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="20.0"/>
-    <col customWidth="1" min="4" max="4" width="19.56"/>
+    <col customWidth="1" hidden="1" min="4" max="4" width="19.56"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -311,9 +308,6 @@
       </c>
       <c r="C2" s="2">
         <v>500.0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/public/admin_deposit.xlsx
+++ b/public/admin_deposit.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>아이디</t>
   </si>
@@ -20,9 +20,6 @@
   </si>
   <si>
     <t>지급금액(원)</t>
-  </si>
-  <si>
-    <t>category</t>
   </si>
   <si>
     <t>rider07</t>
@@ -60,14 +57,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -281,8 +275,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="11.22"/>
     <col customWidth="1" min="2" max="2" width="20.0"/>
-    <col customWidth="1" hidden="1" min="4" max="4" width="19.56"/>
+    <col customWidth="1" min="3" max="3" width="11.22"/>
+    <col customWidth="1" min="4" max="4" width="19.56"/>
+    <col customWidth="1" min="5" max="6" width="11.22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -295,18 +292,16 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="D1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>500.0</v>
       </c>
     </row>

--- a/public/admin_deposit.xlsx
+++ b/public/admin_deposit.xlsx
@@ -11,21 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>아이디</t>
-  </si>
-  <si>
-    <t>지급일시</t>
   </si>
   <si>
     <t>지급금액(원)</t>
   </si>
   <si>
     <t>rider07</t>
-  </si>
-  <si>
-    <t>2021-07-06 14:40:50</t>
   </si>
 </sst>
 </file>
@@ -289,19 +283,13 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="1">
         <v>500.0</v>
       </c>
     </row>
